--- a/va_facility_data_2025-02-20/San Juan VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''San%20Juan%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/San Juan VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''San%20Juan%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R659ebfe66aed46fd9a0c7af41194c0ac"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R721c9d58ed9b4058842d7feebeec794e"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R2e9f346179eb4190a3f799d778b60c15"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R5f79a33a39634bd98046f0220060671f"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Rad0acbae1be1447dbaadcb36ec3e7837"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R298bb16a02b4428b81ffb9902ff56ab7"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R338a157aa92245deac15f207d3313dee"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R80d22f24402d423da61b53e8aa27e178"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Rcf91c81b4d854f4f913923d65fcf3f8b"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="Ra191a3e6089b4254bcea46c586bfc9f7"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Ra7ed450174c04642b542bd3e3ee543be"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R804733dd0a544418ac553b91d762fa13"/>
   </x:sheets>
 </x:workbook>
 </file>
